--- a/20240310/提出・動作確認表.xlsx
+++ b/20240310/提出・動作確認表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\tashiro\EncreCompanyMeeting\20240310\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7696AAEC-B160-4BED-842A-39AC30E08EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF37042-18D5-4A5E-B553-3632190FAEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15000" yWindow="-11895" windowWidth="22275" windowHeight="11295" xr2:uid="{947A03BF-3735-4D06-B923-387C73699246}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>大野</t>
     <rPh sb="0" eb="2">
@@ -67,16 +67,6 @@
     <t>仲田</t>
     <rPh sb="0" eb="2">
       <t>ナカダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>古川先生</t>
-    <rPh sb="0" eb="2">
-      <t>フルカワ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -671,7 +661,7 @@
   <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -683,24 +673,24 @@
     <row r="2" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -709,26 +699,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="8"/>
@@ -739,22 +731,22 @@
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -763,22 +755,22 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -787,22 +779,22 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -811,46 +803,46 @@
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -859,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="6"/>
     </row>

--- a/20240310/提出・動作確認表.xlsx
+++ b/20240310/提出・動作確認表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\tashiro\EncreCompanyMeeting\20240310\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF37042-18D5-4A5E-B553-3632190FAEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C609E496-1602-43A7-B44B-0527E8E5557C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="-11895" windowWidth="22275" windowHeight="11295" xr2:uid="{947A03BF-3735-4D06-B923-387C73699246}"/>
+    <workbookView xWindow="10950" yWindow="-14415" windowWidth="22275" windowHeight="11295" xr2:uid="{947A03BF-3735-4D06-B923-387C73699246}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t>大野</t>
     <rPh sb="0" eb="2">
@@ -206,11 +206,86 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DragonHunter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HUMAN KONG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アタックフィーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーディオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンドレスのみ少し重くなる</t>
+    <rPh sb="7" eb="8">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Don't Fall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリリークは残ってる</t>
+    <rPh sb="7" eb="8">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件不明だが一度だけクリア画像残りあり</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウケンフメイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一部バグは見逃している</t>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミノガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全動作確認完了</t>
+    <rPh sb="0" eb="7">
+      <t>ゼンドウサカクニンカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024/02/28/18：20当たりのファイルのみ有効</t>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ユウコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -243,7 +318,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -310,13 +385,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,6 +430,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -658,19 +752,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114285A0-09B1-4A8A-B032-6FAB61EC15CD}">
-  <dimension ref="B1:E17"/>
+  <dimension ref="B1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="45.625" customWidth="1"/>
+    <col min="7" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
         <v>15</v>
@@ -681,8 +777,14 @@
       <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -692,9 +794,15 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -704,29 +812,44 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
@@ -736,9 +859,12 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -748,9 +874,12 @@
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
@@ -760,9 +889,12 @@
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
@@ -772,9 +904,14 @@
       <c r="D10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
@@ -784,9 +921,12 @@
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
@@ -796,9 +936,14 @@
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
@@ -808,9 +953,14 @@
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
@@ -820,9 +970,14 @@
       <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
@@ -832,21 +987,27 @@
       <c r="D15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="7" t="s">
         <v>0</v>
       </c>
@@ -856,7 +1017,34 @@
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
